--- a/outputs-HGR-r202/f__Megasphaeraceae.xlsx
+++ b/outputs-HGR-r202/f__Megasphaeraceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1215,55 +1215,55 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23746.fa</t>
+          <t>even_MAG-GUT23754.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.002178575218289581</v>
+        <v>0.0002940031279508361</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9977350479274855</v>
+        <v>0.0003717539574015453</v>
       </c>
       <c r="D25" t="n">
-        <v>8.55497212676211e-05</v>
+        <v>0.9993333829322214</v>
       </c>
       <c r="E25" t="n">
-        <v>8.271329572653834e-07</v>
+        <v>8.5998242610751e-07</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9977350479274855</v>
+        <v>0.9993333829322214</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>g__Caecibacter</t>
+          <t>g__Megasphaera</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>g__Caecibacter</t>
+          <t>g__Megasphaera</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23754.fa</t>
+          <t>even_MAG-GUT29587.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0002940031279508361</v>
+        <v>0.0002265939080874494</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0003717539574015453</v>
+        <v>0.003725727374054936</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9993333829322214</v>
+        <v>0.9960454078213198</v>
       </c>
       <c r="E26" t="n">
-        <v>8.5998242610751e-07</v>
+        <v>2.270896537724012e-06</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9993333829322214</v>
+        <v>0.9960454078213198</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1279,23 +1279,23 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29587.fa</t>
+          <t>even_MAG-GUT29781.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0002265939080874494</v>
+        <v>0.0004017093695990404</v>
       </c>
       <c r="C27" t="n">
-        <v>0.003725727374054936</v>
+        <v>0.0155951627108871</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9960454078213198</v>
+        <v>0.9840029982715023</v>
       </c>
       <c r="E27" t="n">
-        <v>2.270896537724012e-06</v>
+        <v>1.29648011509657e-07</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9960454078213198</v>
+        <v>0.9840029982715023</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1311,23 +1311,23 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29781.fa</t>
+          <t>even_MAG-GUT29856.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0004017093695990404</v>
+        <v>0.000389930713278144</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0155951627108871</v>
+        <v>0.001602081758486714</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9840029982715023</v>
+        <v>0.9980071778330445</v>
       </c>
       <c r="E28" t="n">
-        <v>1.29648011509657e-07</v>
+        <v>8.0969519064181e-07</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9840029982715023</v>
+        <v>0.9980071778330445</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1343,23 +1343,23 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29856.fa</t>
+          <t>even_MAG-GUT30581.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.000389930713278144</v>
+        <v>0.0005352024542928227</v>
       </c>
       <c r="C29" t="n">
-        <v>0.001602081758486714</v>
+        <v>0.001004200673864509</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9980071778330445</v>
+        <v>0.9984602508499235</v>
       </c>
       <c r="E29" t="n">
-        <v>8.0969519064181e-07</v>
+        <v>3.460219192065421e-07</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9980071778330445</v>
+        <v>0.9984602508499235</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1375,55 +1375,55 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT30091.fa</t>
+          <t>even_MAG-GUT30699.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.001867545628833413</v>
+        <v>0.001878863776442152</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9980132452159201</v>
+        <v>0.1987292733031873</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0001190674824593869</v>
+        <v>0.7993916175737359</v>
       </c>
       <c r="E30" t="n">
-        <v>1.416727872682347e-07</v>
+        <v>2.45346634605135e-07</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9980132452159201</v>
+        <v>0.7993916175737359</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>g__Caecibacter</t>
+          <t>g__Megasphaera</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>g__Caecibacter</t>
+          <t>g__Megasphaera</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT30581.fa</t>
+          <t>even_MAG-GUT31093.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0005352024542928227</v>
+        <v>0.0005994360185472857</v>
       </c>
       <c r="C31" t="n">
-        <v>0.001004200673864509</v>
+        <v>0.0007163280037961816</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9984602508499235</v>
+        <v>0.9986835407418281</v>
       </c>
       <c r="E31" t="n">
-        <v>3.460219192065421e-07</v>
+        <v>6.952358284571496e-07</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9984602508499235</v>
+        <v>0.9986835407418281</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1439,23 +1439,23 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT30699.fa</t>
+          <t>even_MAG-GUT31302.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.001878863776442152</v>
+        <v>0.0003221529406221506</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1987292733031873</v>
+        <v>0.0009090021125731139</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7993916175737359</v>
+        <v>0.9987660759390412</v>
       </c>
       <c r="E32" t="n">
-        <v>2.45346634605135e-07</v>
+        <v>2.769007763621836e-06</v>
       </c>
       <c r="F32" t="n">
-        <v>0.7993916175737359</v>
+        <v>0.9987660759390412</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1471,23 +1471,23 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31093.fa</t>
+          <t>even_MAG-GUT32106.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.0005994360185472857</v>
+        <v>0.0006597353440228628</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0007163280037961816</v>
+        <v>0.005075975131255737</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9986835407418281</v>
+        <v>0.9942639166006788</v>
       </c>
       <c r="E33" t="n">
-        <v>6.952358284571496e-07</v>
+        <v>3.729240425260152e-07</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9986835407418281</v>
+        <v>0.9942639166006788</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1503,23 +1503,23 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31302.fa</t>
+          <t>even_MAG-GUT33511.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0003221529406221506</v>
+        <v>0.0003264621253141134</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0009090021125731139</v>
+        <v>0.0009041236215987577</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9987660759390412</v>
+        <v>0.9987675075927552</v>
       </c>
       <c r="E34" t="n">
-        <v>2.769007763621836e-06</v>
+        <v>1.906660331868775e-06</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9987660759390412</v>
+        <v>0.9987675075927552</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1535,23 +1535,23 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32106.fa</t>
+          <t>even_MAG-GUT36998.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0006597353440228628</v>
+        <v>0.0005825123375275071</v>
       </c>
       <c r="C35" t="n">
-        <v>0.005075975131255737</v>
+        <v>0.002618098908599747</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9942639166006788</v>
+        <v>0.9967990009233357</v>
       </c>
       <c r="E35" t="n">
-        <v>3.729240425260152e-07</v>
+        <v>3.878305369578375e-07</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9942639166006788</v>
+        <v>0.9967990009233357</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1567,23 +1567,23 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33511.fa</t>
+          <t>even_MAG-GUT3710.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0003264621253141134</v>
+        <v>0.0009807969893510502</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0009041236215987577</v>
+        <v>0.003547924391434286</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9987675075927552</v>
+        <v>0.995471035645272</v>
       </c>
       <c r="E36" t="n">
-        <v>1.906660331868775e-06</v>
+        <v>2.429739426069908e-07</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9987675075927552</v>
+        <v>0.995471035645272</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1599,23 +1599,23 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36998.fa</t>
+          <t>even_MAG-GUT37176.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0005825123375275071</v>
+        <v>0.0003593645914766932</v>
       </c>
       <c r="C37" t="n">
-        <v>0.002618098908599747</v>
+        <v>0.01028407925995873</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9967990009233357</v>
+        <v>0.9893564646341904</v>
       </c>
       <c r="E37" t="n">
-        <v>3.878305369578375e-07</v>
+        <v>9.151437419806889e-08</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9967990009233357</v>
+        <v>0.9893564646341904</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1631,23 +1631,23 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3710.fa</t>
+          <t>even_MAG-GUT37279.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.0009807969893510502</v>
+        <v>0.0005620516046949605</v>
       </c>
       <c r="C38" t="n">
-        <v>0.003547924391434286</v>
+        <v>0.003453672953700041</v>
       </c>
       <c r="D38" t="n">
-        <v>0.995471035645272</v>
+        <v>0.9959838703209168</v>
       </c>
       <c r="E38" t="n">
-        <v>2.429739426069908e-07</v>
+        <v>4.051206882362234e-07</v>
       </c>
       <c r="F38" t="n">
-        <v>0.995471035645272</v>
+        <v>0.9959838703209168</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1663,23 +1663,23 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37176.fa</t>
+          <t>even_MAG-GUT37376.fa</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.0003593645914766932</v>
+        <v>0.000289379224331196</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01028407925995873</v>
+        <v>0.003251213186971147</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9893564646341904</v>
+        <v>0.9964584056095998</v>
       </c>
       <c r="E39" t="n">
-        <v>9.151437419806889e-08</v>
+        <v>1.001979097844278e-06</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9893564646341904</v>
+        <v>0.9964584056095998</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1695,23 +1695,23 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37279.fa</t>
+          <t>even_MAG-GUT37689.fa</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.0005620516046949605</v>
+        <v>0.0004287935617050144</v>
       </c>
       <c r="C40" t="n">
-        <v>0.003453672953700041</v>
+        <v>0.002010910558061158</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9959838703209168</v>
+        <v>0.997559846766447</v>
       </c>
       <c r="E40" t="n">
-        <v>4.051206882362234e-07</v>
+        <v>4.491137868349468e-07</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9959838703209168</v>
+        <v>0.997559846766447</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1727,23 +1727,23 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37376.fa</t>
+          <t>even_MAG-GUT38702.fa</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.000289379224331196</v>
+        <v>0.0004843932411365141</v>
       </c>
       <c r="C41" t="n">
-        <v>0.003251213186971147</v>
+        <v>0.0005297020046118796</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9964584056095998</v>
+        <v>0.9989847600648489</v>
       </c>
       <c r="E41" t="n">
-        <v>1.001979097844278e-06</v>
+        <v>1.144689402748611e-06</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9964584056095998</v>
+        <v>0.9989847600648489</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1759,23 +1759,23 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37689.fa</t>
+          <t>even_MAG-GUT3880.fa</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.0004287935617050144</v>
+        <v>0.0004015379742149623</v>
       </c>
       <c r="C42" t="n">
-        <v>0.002010910558061158</v>
+        <v>0.0004033822616098441</v>
       </c>
       <c r="D42" t="n">
-        <v>0.997559846766447</v>
+        <v>0.9991939141076757</v>
       </c>
       <c r="E42" t="n">
-        <v>4.491137868349468e-07</v>
+        <v>1.165656499401885e-06</v>
       </c>
       <c r="F42" t="n">
-        <v>0.997559846766447</v>
+        <v>0.9991939141076757</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1791,23 +1791,23 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38702.fa</t>
+          <t>even_MAG-GUT43155.fa</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.0004843932411365141</v>
+        <v>0.005590810330197864</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0005297020046118796</v>
+        <v>0.007566491318353586</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9989847600648489</v>
+        <v>0.9868420082254945</v>
       </c>
       <c r="E43" t="n">
-        <v>1.144689402748611e-06</v>
+        <v>6.901259539970014e-07</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9989847600648489</v>
+        <v>0.9868420082254945</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1823,23 +1823,23 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3880.fa</t>
+          <t>even_MAG-GUT43216.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.0004015379742149623</v>
+        <v>0.2679317856182428</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0004033822616098441</v>
+        <v>0.128231750153959</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9991939141076757</v>
+        <v>0.5917006952346057</v>
       </c>
       <c r="E44" t="n">
-        <v>1.165656499401885e-06</v>
+        <v>0.01213576899319259</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9991939141076757</v>
+        <v>0.5917006952346057</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1848,30 +1848,30 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>g__Megasphaera</t>
+          <t>g__Megasphaera(reject)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43155.fa</t>
+          <t>even_MAG-GUT47106.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.005590810330197864</v>
+        <v>0.1188540285626898</v>
       </c>
       <c r="C45" t="n">
-        <v>0.007566491318353586</v>
+        <v>0.04980454991515762</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9868420082254945</v>
+        <v>0.8302776913772757</v>
       </c>
       <c r="E45" t="n">
-        <v>6.901259539970014e-07</v>
+        <v>0.001063730144877014</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9868420082254945</v>
+        <v>0.8302776913772757</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1887,23 +1887,23 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43216.fa</t>
+          <t>even_MAG-GUT5004.fa</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2679317856182428</v>
+        <v>0.001222232049820047</v>
       </c>
       <c r="C46" t="n">
-        <v>0.128231750153959</v>
+        <v>0.004721874537533959</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5917006952346057</v>
+        <v>0.9940558289699287</v>
       </c>
       <c r="E46" t="n">
-        <v>0.01213576899319259</v>
+        <v>6.444271731374457e-08</v>
       </c>
       <c r="F46" t="n">
-        <v>0.5917006952346057</v>
+        <v>0.9940558289699287</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1912,30 +1912,30 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>g__Megasphaera(reject)</t>
+          <t>g__Megasphaera</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47106.fa</t>
+          <t>even_MAG-GUT56570.fa</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.1188540285626898</v>
+        <v>0.0005991392189989038</v>
       </c>
       <c r="C47" t="n">
-        <v>0.04980454991515762</v>
+        <v>0.002133147045449355</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8302776913772757</v>
+        <v>0.9972670909695985</v>
       </c>
       <c r="E47" t="n">
-        <v>0.001063730144877014</v>
+        <v>6.227659533347015e-07</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8302776913772757</v>
+        <v>0.9972670909695985</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1951,23 +1951,23 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5004.fa</t>
+          <t>even_MAG-GUT57069.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.001222232049820047</v>
+        <v>0.004590558540819461</v>
       </c>
       <c r="C48" t="n">
-        <v>0.004721874537533959</v>
+        <v>0.005711884661829479</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9940558289699287</v>
+        <v>0.9896972486538731</v>
       </c>
       <c r="E48" t="n">
-        <v>6.444271731374457e-08</v>
+        <v>3.081434779235836e-07</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9940558289699287</v>
+        <v>0.9896972486538731</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1983,55 +1983,55 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT54583.fa</t>
+          <t>even_MAG-GUT57765.fa</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.002003514991101451</v>
+        <v>0.0002308326863789173</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9979189982080706</v>
+        <v>0.001753595727653419</v>
       </c>
       <c r="D49" t="n">
-        <v>7.319532212596386e-05</v>
+        <v>0.9980137591706117</v>
       </c>
       <c r="E49" t="n">
-        <v>4.291478701930912e-06</v>
+        <v>1.81241535606347e-06</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9979189982080706</v>
+        <v>0.9980137591706117</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>g__Caecibacter</t>
+          <t>g__Megasphaera</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>g__Caecibacter</t>
+          <t>g__Megasphaera</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56570.fa</t>
+          <t>even_MAG-GUT59593.fa</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.0005991392189989038</v>
+        <v>0.0003176018130275231</v>
       </c>
       <c r="C50" t="n">
-        <v>0.002133147045449355</v>
+        <v>0.00149691621478895</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9972670909695985</v>
+        <v>0.9981843445480718</v>
       </c>
       <c r="E50" t="n">
-        <v>6.227659533347015e-07</v>
+        <v>1.137424111766537e-06</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9972670909695985</v>
+        <v>0.9981843445480718</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2047,23 +2047,23 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57069.fa</t>
+          <t>even_MAG-GUT60756.fa</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.004590558540819461</v>
+        <v>0.0004834876944857596</v>
       </c>
       <c r="C51" t="n">
-        <v>0.005711884661829479</v>
+        <v>0.01151331356612957</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9896972486538731</v>
+        <v>0.988002377525647</v>
       </c>
       <c r="E51" t="n">
-        <v>3.081434779235836e-07</v>
+        <v>8.2121373758662e-07</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9896972486538731</v>
+        <v>0.988002377525647</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2079,23 +2079,23 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57765.fa</t>
+          <t>even_MAG-GUT61634.fa</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.0002308326863789173</v>
+        <v>0.003294557124337049</v>
       </c>
       <c r="C52" t="n">
-        <v>0.001753595727653419</v>
+        <v>0.0005267617605621441</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9980137591706117</v>
+        <v>0.9961785181358018</v>
       </c>
       <c r="E52" t="n">
-        <v>1.81241535606347e-06</v>
+        <v>1.629792989331798e-07</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9980137591706117</v>
+        <v>0.9961785181358018</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2111,23 +2111,23 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59593.fa</t>
+          <t>even_MAG-GUT62119.fa</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.0003176018130275231</v>
+        <v>0.000350978909913741</v>
       </c>
       <c r="C53" t="n">
-        <v>0.00149691621478895</v>
+        <v>0.003250852324809853</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9981843445480718</v>
+        <v>0.996397316733437</v>
       </c>
       <c r="E53" t="n">
-        <v>1.137424111766537e-06</v>
+        <v>8.520318395138704e-07</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9981843445480718</v>
+        <v>0.996397316733437</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2143,23 +2143,23 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60756.fa</t>
+          <t>even_MAG-GUT86853.fa</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.0004834876944857596</v>
+        <v>0.0003386294025871902</v>
       </c>
       <c r="C54" t="n">
-        <v>0.01151331356612957</v>
+        <v>0.003088270726847523</v>
       </c>
       <c r="D54" t="n">
-        <v>0.988002377525647</v>
+        <v>0.9965723755070052</v>
       </c>
       <c r="E54" t="n">
-        <v>8.2121373758662e-07</v>
+        <v>7.243635600271336e-07</v>
       </c>
       <c r="F54" t="n">
-        <v>0.988002377525647</v>
+        <v>0.9965723755070052</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2175,23 +2175,23 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61634.fa</t>
+          <t>even_MAG-GUT86935.fa</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.003294557124337049</v>
+        <v>0.000382627785713762</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0005267617605621441</v>
+        <v>0.0008120216736337157</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9961785181358018</v>
+        <v>0.9988040516800013</v>
       </c>
       <c r="E55" t="n">
-        <v>1.629792989331798e-07</v>
+        <v>1.298860651235315e-06</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9961785181358018</v>
+        <v>0.9988040516800013</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2207,23 +2207,23 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62119.fa</t>
+          <t>even_MAG-GUT87208.fa</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.000350978909913741</v>
+        <v>0.0006801172015653002</v>
       </c>
       <c r="C56" t="n">
-        <v>0.003250852324809853</v>
+        <v>0.005288689669919217</v>
       </c>
       <c r="D56" t="n">
-        <v>0.996397316733437</v>
+        <v>0.9940299660046679</v>
       </c>
       <c r="E56" t="n">
-        <v>8.520318395138704e-07</v>
+        <v>1.227123847535322e-06</v>
       </c>
       <c r="F56" t="n">
-        <v>0.996397316733437</v>
+        <v>0.9940299660046679</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2239,23 +2239,23 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86853.fa</t>
+          <t>even_MAG-GUT87297.fa</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.0003386294025871902</v>
+        <v>0.0003506846725020798</v>
       </c>
       <c r="C57" t="n">
-        <v>0.003088270726847523</v>
+        <v>0.0006162425848043772</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9965723755070052</v>
+        <v>0.9990307691634041</v>
       </c>
       <c r="E57" t="n">
-        <v>7.243635600271336e-07</v>
+        <v>2.303579289499137e-06</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9965723755070052</v>
+        <v>0.9990307691634041</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2271,23 +2271,23 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86935.fa</t>
+          <t>even_MAG-GUT87358.fa</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.000382627785713762</v>
+        <v>0.0003635363836430119</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0008120216736337157</v>
+        <v>0.004861244724754332</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9988040516800013</v>
+        <v>0.9947743533264101</v>
       </c>
       <c r="E58" t="n">
-        <v>1.298860651235315e-06</v>
+        <v>8.655651924635099e-07</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9988040516800013</v>
+        <v>0.9947743533264101</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2303,23 +2303,23 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87208.fa</t>
+          <t>even_MAG-GUT87793.fa</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.0006801172015653002</v>
+        <v>0.0003142543975709116</v>
       </c>
       <c r="C59" t="n">
-        <v>0.005288689669919217</v>
+        <v>0.0003935741409063721</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9940299660046679</v>
+        <v>0.9992908673904746</v>
       </c>
       <c r="E59" t="n">
-        <v>1.227123847535322e-06</v>
+        <v>1.304071048094127e-06</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9940299660046679</v>
+        <v>0.9992908673904746</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2335,23 +2335,23 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87297.fa</t>
+          <t>even_MAG-GUT88263.fa</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.0003506846725020798</v>
+        <v>0.0004053007215843835</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0006162425848043772</v>
+        <v>0.0009841991439814481</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9990307691634041</v>
+        <v>0.9986089234886689</v>
       </c>
       <c r="E60" t="n">
-        <v>2.303579289499137e-06</v>
+        <v>1.576645765356549e-06</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9990307691634041</v>
+        <v>0.9986089234886689</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2367,23 +2367,23 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87358.fa</t>
+          <t>even_MAG-GUT88291.fa</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.0003635363836430119</v>
+        <v>0.0005438809484651895</v>
       </c>
       <c r="C61" t="n">
-        <v>0.004861244724754332</v>
+        <v>0.0175263190830956</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9947743533264101</v>
+        <v>0.9819293211417398</v>
       </c>
       <c r="E61" t="n">
-        <v>8.655651924635099e-07</v>
+        <v>4.788266993800107e-07</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9947743533264101</v>
+        <v>0.9819293211417398</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2399,23 +2399,23 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87793.fa</t>
+          <t>even_MAG-GUT88563.fa</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.0003142543975709116</v>
+        <v>0.0003696085383928271</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0003935741409063721</v>
+        <v>0.001725887625293344</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9992908673904746</v>
+        <v>0.9979038122647768</v>
       </c>
       <c r="E62" t="n">
-        <v>1.304071048094127e-06</v>
+        <v>6.915715370880564e-07</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9992908673904746</v>
+        <v>0.9979038122647768</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2431,23 +2431,23 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88263.fa</t>
+          <t>even_MAG-GUT88626.fa</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.0004053007215843835</v>
+        <v>0.0002564887192982322</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0009841991439814481</v>
+        <v>0.00254084772032999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9986089234886689</v>
+        <v>0.997200768818873</v>
       </c>
       <c r="E63" t="n">
-        <v>1.576645765356549e-06</v>
+        <v>1.894741498821321e-06</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9986089234886689</v>
+        <v>0.997200768818873</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2463,23 +2463,23 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88291.fa</t>
+          <t>even_MAG-GUT88854.fa</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.0005438809484651895</v>
+        <v>0.0003182053955611946</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0175263190830956</v>
+        <v>0.001239424829714659</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9819293211417398</v>
+        <v>0.9984401029437747</v>
       </c>
       <c r="E64" t="n">
-        <v>4.788266993800107e-07</v>
+        <v>2.266830949440837e-06</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9819293211417398</v>
+        <v>0.9984401029437747</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2495,23 +2495,23 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88563.fa</t>
+          <t>even_MAG-GUT88891.fa</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.0003696085383928271</v>
+        <v>0.0003722461342132636</v>
       </c>
       <c r="C65" t="n">
-        <v>0.001725887625293344</v>
+        <v>0.001768490999546371</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9979038122647768</v>
+        <v>0.9978580398406421</v>
       </c>
       <c r="E65" t="n">
-        <v>6.915715370880564e-07</v>
+        <v>1.223025598195738e-06</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9979038122647768</v>
+        <v>0.9978580398406421</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2527,23 +2527,23 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88626.fa</t>
+          <t>even_MAG-GUT89009.fa</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.0002564887192982322</v>
+        <v>0.0003184018457659048</v>
       </c>
       <c r="C66" t="n">
-        <v>0.00254084772032999</v>
+        <v>0.002807535278378281</v>
       </c>
       <c r="D66" t="n">
-        <v>0.997200768818873</v>
+        <v>0.9968732552884184</v>
       </c>
       <c r="E66" t="n">
-        <v>1.894741498821321e-06</v>
+        <v>8.075874374803621e-07</v>
       </c>
       <c r="F66" t="n">
-        <v>0.997200768818873</v>
+        <v>0.9968732552884184</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2559,23 +2559,23 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88854.fa</t>
+          <t>even_MAG-GUT89323.fa</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.0003182053955611946</v>
+        <v>0.09917730229082823</v>
       </c>
       <c r="C67" t="n">
-        <v>0.001239424829714659</v>
+        <v>0.2061173849285544</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9984401029437747</v>
+        <v>0.6899466707962709</v>
       </c>
       <c r="E67" t="n">
-        <v>2.266830949440837e-06</v>
+        <v>0.004758641984346428</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9984401029437747</v>
+        <v>0.6899466707962709</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2584,71 +2584,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>g__Megasphaera</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT88891.fa</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>0.0003722461342132636</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0.001768490999546371</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9978580398406421</v>
-      </c>
-      <c r="E68" t="n">
-        <v>1.223025598195738e-06</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0.9978580398406421</v>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>g__Megasphaera</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>g__Megasphaera</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT89009.fa</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>0.0003184018457659048</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0.002807535278378281</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9968732552884184</v>
-      </c>
-      <c r="E69" t="n">
-        <v>8.075874374803621e-07</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0.9968732552884184</v>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>g__Megasphaera</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>g__Megasphaera</t>
+          <t>g__Megasphaera(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/f__Megasphaeraceae.xlsx
+++ b/outputs-HGR-r202/f__Megasphaeraceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -524,6 +534,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -551,6 +566,11 @@
           <t>g__Caecibacter</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>g__Caecibacter</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -578,6 +598,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -605,6 +630,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -632,6 +662,11 @@
           <t>g__Caecibacter</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>g__Caecibacter</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -659,6 +694,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -686,6 +726,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -713,6 +758,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -740,6 +790,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -767,6 +822,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>g__Megasphaera(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -794,6 +854,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -821,6 +886,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -848,6 +918,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -875,6 +950,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -902,6 +982,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -929,6 +1014,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -956,6 +1046,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -983,6 +1078,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1010,6 +1110,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1037,6 +1142,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1064,6 +1174,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1091,6 +1206,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1118,6 +1238,11 @@
           <t>g__Caecibacter</t>
         </is>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>g__Caecibacter</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1145,6 +1270,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1172,6 +1302,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1199,6 +1334,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1226,6 +1366,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1253,6 +1398,11 @@
           <t>g__Caecibacter</t>
         </is>
       </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>g__Caecibacter</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1280,6 +1430,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1307,6 +1462,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1334,6 +1494,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1361,6 +1526,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1388,6 +1558,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1415,6 +1590,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1442,6 +1622,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1469,6 +1654,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1496,6 +1686,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1523,6 +1718,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1550,6 +1750,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1577,6 +1782,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1604,6 +1814,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1631,6 +1846,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1658,6 +1878,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1685,6 +1910,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>g__Megasphaera(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1712,6 +1942,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1739,6 +1974,11 @@
           <t>g__UMGS915</t>
         </is>
       </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>g__UMGS915(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1766,6 +2006,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1793,6 +2038,11 @@
           <t>g__Caecibacter</t>
         </is>
       </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>g__Caecibacter</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1820,6 +2070,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1847,6 +2102,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1874,6 +2134,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1901,6 +2166,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1928,6 +2198,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1955,6 +2230,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1982,6 +2262,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -2009,6 +2294,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -2036,6 +2326,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -2063,6 +2358,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -2090,6 +2390,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -2117,6 +2422,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -2144,6 +2454,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -2171,6 +2486,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -2198,6 +2518,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -2225,6 +2550,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -2252,6 +2582,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -2279,6 +2614,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -2306,6 +2646,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -2333,6 +2678,11 @@
           <t>g__Megasphaera</t>
         </is>
       </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -2358,6 +2708,11 @@
       <c r="G71" t="inlineStr">
         <is>
           <t>g__Megasphaera</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>g__Megasphaera(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/f__Megasphaeraceae.xlsx
+++ b/outputs-HGR-r202/f__Megasphaeraceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -824,7 +824,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>g__Megasphaera</t>
+          <t>g__Megasphaera(reject)</t>
         </is>
       </c>
     </row>
@@ -1912,7 +1912,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>g__Megasphaera</t>
+          <t>g__Megasphaera(reject)</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>g__UMGS915</t>
+          <t>g__UMGS915(reject)</t>
         </is>
       </c>
     </row>
@@ -2015,55 +2015,55 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56570.fa</t>
+          <t>even_MAG-GUT54583.fa</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.0005991392189989038</v>
+        <v>0.002003514991101451</v>
       </c>
       <c r="C50" t="n">
-        <v>0.002133147045449355</v>
+        <v>0.9979189982080706</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9972670909695985</v>
+        <v>7.319532212596386e-05</v>
       </c>
       <c r="E50" t="n">
-        <v>6.227659533347015e-07</v>
+        <v>4.291478701930912e-06</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9972670909695985</v>
+        <v>0.9979189982080706</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>g__Megasphaera</t>
+          <t>g__Caecibacter</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>g__Megasphaera</t>
+          <t>g__Caecibacter</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57069.fa</t>
+          <t>even_MAG-GUT56570.fa</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.004590558540819461</v>
+        <v>0.0005991392189989038</v>
       </c>
       <c r="C51" t="n">
-        <v>0.005711884661829479</v>
+        <v>0.002133147045449355</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9896972486538731</v>
+        <v>0.9972670909695985</v>
       </c>
       <c r="E51" t="n">
-        <v>3.081434779235836e-07</v>
+        <v>6.227659533347015e-07</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9896972486538731</v>
+        <v>0.9972670909695985</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2079,23 +2079,23 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57765.fa</t>
+          <t>even_MAG-GUT57069.fa</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.0002308326863789173</v>
+        <v>0.004590558540819461</v>
       </c>
       <c r="C52" t="n">
-        <v>0.001753595727653419</v>
+        <v>0.005711884661829479</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9980137591706117</v>
+        <v>0.9896972486538731</v>
       </c>
       <c r="E52" t="n">
-        <v>1.81241535606347e-06</v>
+        <v>3.081434779235836e-07</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9980137591706117</v>
+        <v>0.9896972486538731</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2111,23 +2111,23 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59593.fa</t>
+          <t>even_MAG-GUT57765.fa</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.0003176018130275231</v>
+        <v>0.0002308326863789173</v>
       </c>
       <c r="C53" t="n">
-        <v>0.00149691621478895</v>
+        <v>0.001753595727653419</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9981843445480718</v>
+        <v>0.9980137591706117</v>
       </c>
       <c r="E53" t="n">
-        <v>1.137424111766537e-06</v>
+        <v>1.81241535606347e-06</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9981843445480718</v>
+        <v>0.9980137591706117</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2143,23 +2143,23 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60756.fa</t>
+          <t>even_MAG-GUT59593.fa</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.0004834876944857596</v>
+        <v>0.0003176018130275231</v>
       </c>
       <c r="C54" t="n">
-        <v>0.01151331356612957</v>
+        <v>0.00149691621478895</v>
       </c>
       <c r="D54" t="n">
-        <v>0.988002377525647</v>
+        <v>0.9981843445480718</v>
       </c>
       <c r="E54" t="n">
-        <v>8.2121373758662e-07</v>
+        <v>1.137424111766537e-06</v>
       </c>
       <c r="F54" t="n">
-        <v>0.988002377525647</v>
+        <v>0.9981843445480718</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2175,23 +2175,23 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61634.fa</t>
+          <t>even_MAG-GUT60756.fa</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.003294557124337049</v>
+        <v>0.0004834876944857596</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0005267617605621441</v>
+        <v>0.01151331356612957</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9961785181358018</v>
+        <v>0.988002377525647</v>
       </c>
       <c r="E55" t="n">
-        <v>1.629792989331798e-07</v>
+        <v>8.2121373758662e-07</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9961785181358018</v>
+        <v>0.988002377525647</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2207,23 +2207,23 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62119.fa</t>
+          <t>even_MAG-GUT61634.fa</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.000350978909913741</v>
+        <v>0.003294557124337049</v>
       </c>
       <c r="C56" t="n">
-        <v>0.003250852324809853</v>
+        <v>0.0005267617605621441</v>
       </c>
       <c r="D56" t="n">
-        <v>0.996397316733437</v>
+        <v>0.9961785181358018</v>
       </c>
       <c r="E56" t="n">
-        <v>8.520318395138704e-07</v>
+        <v>1.629792989331798e-07</v>
       </c>
       <c r="F56" t="n">
-        <v>0.996397316733437</v>
+        <v>0.9961785181358018</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2239,23 +2239,23 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86853.fa</t>
+          <t>even_MAG-GUT62119.fa</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.0003386294025871902</v>
+        <v>0.000350978909913741</v>
       </c>
       <c r="C57" t="n">
-        <v>0.003088270726847523</v>
+        <v>0.003250852324809853</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9965723755070052</v>
+        <v>0.996397316733437</v>
       </c>
       <c r="E57" t="n">
-        <v>7.243635600271336e-07</v>
+        <v>8.520318395138704e-07</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9965723755070052</v>
+        <v>0.996397316733437</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2271,23 +2271,23 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86935.fa</t>
+          <t>even_MAG-GUT86853.fa</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.000382627785713762</v>
+        <v>0.0003386294025871902</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0008120216736337157</v>
+        <v>0.003088270726847523</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9988040516800013</v>
+        <v>0.9965723755070052</v>
       </c>
       <c r="E58" t="n">
-        <v>1.298860651235315e-06</v>
+        <v>7.243635600271336e-07</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9988040516800013</v>
+        <v>0.9965723755070052</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2303,23 +2303,23 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87208.fa</t>
+          <t>even_MAG-GUT86935.fa</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.0006801172015653002</v>
+        <v>0.000382627785713762</v>
       </c>
       <c r="C59" t="n">
-        <v>0.005288689669919217</v>
+        <v>0.0008120216736337157</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9940299660046679</v>
+        <v>0.9988040516800013</v>
       </c>
       <c r="E59" t="n">
-        <v>1.227123847535322e-06</v>
+        <v>1.298860651235315e-06</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9940299660046679</v>
+        <v>0.9988040516800013</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2335,23 +2335,23 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87297.fa</t>
+          <t>even_MAG-GUT87208.fa</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.0003506846725020798</v>
+        <v>0.0006801172015653002</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0006162425848043772</v>
+        <v>0.005288689669919217</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9990307691634041</v>
+        <v>0.9940299660046679</v>
       </c>
       <c r="E60" t="n">
-        <v>2.303579289499137e-06</v>
+        <v>1.227123847535322e-06</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9990307691634041</v>
+        <v>0.9940299660046679</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2367,23 +2367,23 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87358.fa</t>
+          <t>even_MAG-GUT87297.fa</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.0003635363836430119</v>
+        <v>0.0003506846725020798</v>
       </c>
       <c r="C61" t="n">
-        <v>0.004861244724754332</v>
+        <v>0.0006162425848043772</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9947743533264101</v>
+        <v>0.9990307691634041</v>
       </c>
       <c r="E61" t="n">
-        <v>8.655651924635099e-07</v>
+        <v>2.303579289499137e-06</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9947743533264101</v>
+        <v>0.9990307691634041</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2399,23 +2399,23 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87793.fa</t>
+          <t>even_MAG-GUT87358.fa</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.0003142543975709116</v>
+        <v>0.0003635363836430119</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0003935741409063721</v>
+        <v>0.004861244724754332</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9992908673904746</v>
+        <v>0.9947743533264101</v>
       </c>
       <c r="E62" t="n">
-        <v>1.304071048094127e-06</v>
+        <v>8.655651924635099e-07</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9992908673904746</v>
+        <v>0.9947743533264101</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2431,23 +2431,23 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88263.fa</t>
+          <t>even_MAG-GUT87793.fa</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.0004053007215843835</v>
+        <v>0.0003142543975709116</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0009841991439814481</v>
+        <v>0.0003935741409063721</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9986089234886689</v>
+        <v>0.9992908673904746</v>
       </c>
       <c r="E63" t="n">
-        <v>1.576645765356549e-06</v>
+        <v>1.304071048094127e-06</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9986089234886689</v>
+        <v>0.9992908673904746</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2463,23 +2463,23 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88291.fa</t>
+          <t>even_MAG-GUT88263.fa</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.0005438809484651895</v>
+        <v>0.0004053007215843835</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0175263190830956</v>
+        <v>0.0009841991439814481</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9819293211417398</v>
+        <v>0.9986089234886689</v>
       </c>
       <c r="E64" t="n">
-        <v>4.788266993800107e-07</v>
+        <v>1.576645765356549e-06</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9819293211417398</v>
+        <v>0.9986089234886689</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2495,23 +2495,23 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88563.fa</t>
+          <t>even_MAG-GUT88291.fa</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.0003696085383928271</v>
+        <v>0.0005438809484651895</v>
       </c>
       <c r="C65" t="n">
-        <v>0.001725887625293344</v>
+        <v>0.0175263190830956</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9979038122647768</v>
+        <v>0.9819293211417398</v>
       </c>
       <c r="E65" t="n">
-        <v>6.915715370880564e-07</v>
+        <v>4.788266993800107e-07</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9979038122647768</v>
+        <v>0.9819293211417398</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2527,23 +2527,23 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88626.fa</t>
+          <t>even_MAG-GUT88563.fa</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.0002564887192982322</v>
+        <v>0.0003696085383928271</v>
       </c>
       <c r="C66" t="n">
-        <v>0.00254084772032999</v>
+        <v>0.001725887625293344</v>
       </c>
       <c r="D66" t="n">
-        <v>0.997200768818873</v>
+        <v>0.9979038122647768</v>
       </c>
       <c r="E66" t="n">
-        <v>1.894741498821321e-06</v>
+        <v>6.915715370880564e-07</v>
       </c>
       <c r="F66" t="n">
-        <v>0.997200768818873</v>
+        <v>0.9979038122647768</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2559,23 +2559,23 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88854.fa</t>
+          <t>even_MAG-GUT88626.fa</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.0003182053955611946</v>
+        <v>0.0002564887192982322</v>
       </c>
       <c r="C67" t="n">
-        <v>0.001239424829714659</v>
+        <v>0.00254084772032999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9984401029437747</v>
+        <v>0.997200768818873</v>
       </c>
       <c r="E67" t="n">
-        <v>2.266830949440837e-06</v>
+        <v>1.894741498821321e-06</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9984401029437747</v>
+        <v>0.997200768818873</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2591,23 +2591,23 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88891.fa</t>
+          <t>even_MAG-GUT88854.fa</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.0003722461342132636</v>
+        <v>0.0003182053955611946</v>
       </c>
       <c r="C68" t="n">
-        <v>0.001768490999546371</v>
+        <v>0.001239424829714659</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9978580398406421</v>
+        <v>0.9984401029437747</v>
       </c>
       <c r="E68" t="n">
-        <v>1.223025598195738e-06</v>
+        <v>2.266830949440837e-06</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9978580398406421</v>
+        <v>0.9984401029437747</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2623,23 +2623,23 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89009.fa</t>
+          <t>even_MAG-GUT88891.fa</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.0003184018457659048</v>
+        <v>0.0003722461342132636</v>
       </c>
       <c r="C69" t="n">
-        <v>0.002807535278378281</v>
+        <v>0.001768490999546371</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9968732552884184</v>
+        <v>0.9978580398406421</v>
       </c>
       <c r="E69" t="n">
-        <v>8.075874374803621e-07</v>
+        <v>1.223025598195738e-06</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9968732552884184</v>
+        <v>0.9978580398406421</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2655,32 +2655,64 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT89009.fa</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.0003184018457659048</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.002807535278378281</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.9968732552884184</v>
+      </c>
+      <c r="E70" t="n">
+        <v>8.075874374803621e-07</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.9968732552884184</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT89323.fa</t>
         </is>
       </c>
-      <c r="B70" t="n">
+      <c r="B71" t="n">
         <v>0.09917730229082823</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C71" t="n">
         <v>0.2061173849285544</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D71" t="n">
         <v>0.6899466707962709</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E71" t="n">
         <v>0.004758641984346428</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F71" t="n">
         <v>0.6899466707962709</v>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>g__Megasphaera</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>g__Megasphaera</t>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>g__Megasphaera</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>g__Megasphaera(reject)</t>
         </is>
       </c>
     </row>
